--- a/Real data input/Requests/Low 3/Requests.xlsx
+++ b/Real data input/Requests/Low 3/Requests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AFEE3-6427-4A7A-864F-72E445932CEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB004E8-41C4-4B59-90B5-B36E4A89540E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>QSI</t>
   </si>
   <si>
-    <t>SE_U</t>
-  </si>
-  <si>
     <t>LOB</t>
   </si>
   <si>
@@ -667,9 +664,6 @@
     <t>220BB246</t>
   </si>
   <si>
-    <t>2205C7AE_</t>
-  </si>
-  <si>
     <t>220C3C71</t>
   </si>
   <si>
@@ -685,9 +679,6 @@
     <t>220B222A</t>
   </si>
   <si>
-    <t>220329BE_</t>
-  </si>
-  <si>
     <t>2204AB7D</t>
   </si>
   <si>
@@ -1679,6 +1670,15 @@
   </si>
   <si>
     <t>BERTRAM HENDERSON</t>
+  </si>
+  <si>
+    <t>220329BE</t>
+  </si>
+  <si>
+    <t>SEU</t>
+  </si>
+  <si>
+    <t>2205C7AE</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2041,7 @@
   <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A357" sqref="A2:A357"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>22042685</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>22066602</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B30" s="4">
         <v>22073465</v>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -3240,10 +3240,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B40" s="4">
         <v>22047328</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>32</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="4">
         <v>22084921</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3980,10 +3980,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B59" s="4">
         <v>22072936</v>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -4498,10 +4498,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>30</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -5016,10 +5016,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>31</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -5423,10 +5423,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -5645,16 +5645,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -5682,16 +5682,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -6015,10 +6015,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -6126,10 +6126,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -6274,10 +6274,10 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -6385,10 +6385,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B119" s="4">
         <v>22025198</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B120" s="4">
         <v>22025198</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -6681,16 +6681,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
@@ -6718,16 +6718,16 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -6792,10 +6792,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -6903,10 +6903,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B133" s="4">
         <v>22025198</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B134" s="4">
         <v>22025198</v>
@@ -7014,10 +7014,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B136" s="4">
         <v>22098713</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B137" s="4">
         <v>22098713</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B138" s="4">
         <v>22098713</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B139" s="4">
         <v>22098713</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B140" s="4">
         <v>22098713</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -7310,10 +7310,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -7347,10 +7347,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B145" s="4">
         <v>22027195</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -7458,10 +7458,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -7495,10 +7495,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -7606,10 +7606,10 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -7643,10 +7643,10 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -7680,10 +7680,10 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -7717,10 +7717,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
@@ -7754,10 +7754,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -7865,10 +7865,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B159" s="4">
         <v>22089913</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -8013,10 +8013,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
@@ -8124,10 +8124,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B166" s="4">
         <v>22027195</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
@@ -8309,10 +8309,10 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B171" s="4">
         <v>22038408</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -8420,10 +8420,10 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -8457,10 +8457,10 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -8494,10 +8494,10 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -8531,10 +8531,10 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C177" t="s">
         <v>14</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B178" s="4">
         <v>22038408</v>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -8679,10 +8679,10 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
@@ -8716,10 +8716,10 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>215</v>
+        <v>552</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
@@ -8901,10 +8901,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
@@ -8938,10 +8938,10 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -9012,10 +9012,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -9049,10 +9049,10 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
@@ -9123,10 +9123,10 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B193" s="4">
         <v>22034528</v>
@@ -9197,10 +9197,10 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
@@ -9234,10 +9234,10 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -9271,10 +9271,10 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
@@ -9308,10 +9308,10 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
@@ -9345,10 +9345,10 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -9419,10 +9419,10 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -9456,10 +9456,10 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -9493,10 +9493,10 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -9678,10 +9678,10 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
@@ -9752,10 +9752,10 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
@@ -9937,10 +9937,10 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
@@ -9974,10 +9974,10 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -10011,10 +10011,10 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -10048,10 +10048,10 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -10085,10 +10085,10 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B220" s="4">
         <v>22021519</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B221" s="4">
         <v>22021519</v>
@@ -10233,10 +10233,10 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -10270,10 +10270,10 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -10381,10 +10381,10 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B228" s="4">
         <v>22098713</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B229" s="4">
         <v>22098713</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B230" s="4">
         <v>22098713</v>
@@ -10566,7 +10566,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B231" s="4">
         <v>22098713</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B232" s="4">
         <v>22098713</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -10677,10 +10677,10 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -10714,10 +10714,10 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -10751,10 +10751,10 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
@@ -10788,10 +10788,10 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -10825,10 +10825,10 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -10862,10 +10862,10 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -10899,10 +10899,10 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
@@ -10936,10 +10936,10 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -10973,10 +10973,10 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C242" t="s">
         <v>12</v>
@@ -11010,10 +11010,10 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -11047,10 +11047,10 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -11084,10 +11084,10 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -11121,10 +11121,10 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C246" t="s">
         <v>12</v>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -11195,10 +11195,10 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -11232,10 +11232,10 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>33</v>
@@ -11343,10 +11343,10 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -11380,10 +11380,10 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
@@ -11417,10 +11417,10 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C254" t="s">
         <v>13</v>
@@ -11454,10 +11454,10 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -11491,10 +11491,10 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C256" t="s">
         <v>13</v>
@@ -11531,7 +11531,7 @@
         <v>28</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
@@ -11565,10 +11565,10 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -11602,10 +11602,10 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -11639,10 +11639,10 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -11676,10 +11676,10 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -11713,10 +11713,10 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C262" t="s">
         <v>12</v>
@@ -11750,10 +11750,10 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C264" t="s">
         <v>12</v>
@@ -11824,10 +11824,10 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
@@ -11898,10 +11898,10 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C267" t="s">
         <v>12</v>
@@ -11935,10 +11935,10 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C268" t="s">
         <v>13</v>
@@ -11972,10 +11972,10 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -12009,10 +12009,10 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C271" t="s">
         <v>13</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -12120,10 +12120,10 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C273" t="s">
         <v>13</v>
@@ -12157,10 +12157,10 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -12194,10 +12194,10 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -12231,10 +12231,10 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -12268,10 +12268,10 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C278" t="s">
         <v>12</v>
@@ -12342,10 +12342,10 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C279" t="s">
         <v>13</v>
@@ -12379,10 +12379,10 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B281" s="4">
         <v>22004264</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B282" s="4">
         <v>22004264</v>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C283" t="s">
         <v>13</v>
@@ -12527,10 +12527,10 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C284" t="s">
         <v>13</v>
@@ -12564,10 +12564,10 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -12601,10 +12601,10 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>
@@ -12619,7 +12619,7 @@
         <v>15</v>
       </c>
       <c r="G286" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H286" s="5">
         <v>25569.322916666668</v>
@@ -12638,10 +12638,10 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C287" t="s">
         <v>13</v>
@@ -12656,7 +12656,7 @@
         <v>15</v>
       </c>
       <c r="G287" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H287" s="5">
         <v>25569.322916666668</v>
@@ -12675,10 +12675,10 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C288" t="s">
         <v>13</v>
@@ -12693,7 +12693,7 @@
         <v>15</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H288" s="5">
         <v>25569.322916666668</v>
@@ -12712,10 +12712,10 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -12730,7 +12730,7 @@
         <v>15</v>
       </c>
       <c r="G289" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H289" s="5">
         <v>25569.322916666668</v>
@@ -12749,10 +12749,10 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C290" t="s">
         <v>13</v>
@@ -12767,7 +12767,7 @@
         <v>15</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H290" s="5">
         <v>25569.322916666668</v>
@@ -12786,10 +12786,10 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C291" t="s">
         <v>13</v>
@@ -12804,7 +12804,7 @@
         <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H291" s="5">
         <v>25569.322916666668</v>
@@ -12823,10 +12823,10 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C292" t="s">
         <v>12</v>
@@ -12841,7 +12841,7 @@
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H292" s="5">
         <v>25569.322916666668</v>
@@ -12860,10 +12860,10 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -12897,10 +12897,10 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C294" t="s">
         <v>12</v>
@@ -12934,10 +12934,10 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G295" t="s">
         <v>18</v>
@@ -12971,10 +12971,10 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C296" t="s">
         <v>12</v>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G296" t="s">
         <v>18</v>
@@ -13008,10 +13008,10 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C298" t="s">
         <v>12</v>
@@ -13082,10 +13082,10 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -13119,10 +13119,10 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -13156,10 +13156,10 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>15</v>
@@ -13193,10 +13193,10 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -13208,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G302" t="s">
         <v>15</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G303" t="s">
         <v>15</v>
@@ -13267,10 +13267,10 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C304" t="s">
         <v>12</v>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
         <v>15</v>
@@ -13304,10 +13304,10 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C305" t="s">
         <v>12</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G305" t="s">
         <v>15</v>
@@ -13341,10 +13341,10 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G306" t="s">
         <v>15</v>
@@ -13378,10 +13378,10 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G307" t="s">
         <v>15</v>
@@ -13415,10 +13415,10 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C308" t="s">
         <v>12</v>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G308" t="s">
         <v>15</v>
@@ -13452,10 +13452,10 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="F309" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G309" t="s">
         <v>15</v>
@@ -13489,7 +13489,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B310" s="4">
         <v>22027195</v>
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G310" t="s">
         <v>15</v>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B311" s="4">
         <v>22027195</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G311" t="s">
         <v>15</v>
@@ -13563,10 +13563,10 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C312" t="s">
         <v>13</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G312" t="s">
         <v>15</v>
@@ -13600,10 +13600,10 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C313" t="s">
         <v>12</v>
@@ -13637,10 +13637,10 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C314" t="s">
         <v>13</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G314" t="s">
         <v>15</v>
@@ -13674,10 +13674,10 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C315" t="s">
         <v>13</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G315" t="s">
         <v>15</v>
@@ -13711,10 +13711,10 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C316" t="s">
         <v>13</v>
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G316" t="s">
         <v>15</v>
@@ -13748,10 +13748,10 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C317" t="s">
         <v>12</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G317" t="s">
         <v>15</v>
@@ -13785,10 +13785,10 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C318" t="s">
         <v>13</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G318" t="s">
         <v>15</v>
@@ -13822,10 +13822,10 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C319" t="s">
         <v>12</v>
@@ -13859,10 +13859,10 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C320" t="s">
         <v>12</v>
@@ -13896,10 +13896,10 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C321" t="s">
         <v>13</v>
@@ -13933,10 +13933,10 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -13970,10 +13970,10 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C323" t="s">
         <v>13</v>
@@ -14007,10 +14007,10 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C324" t="s">
         <v>13</v>
@@ -14044,10 +14044,10 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
         <v>13</v>
@@ -14081,10 +14081,10 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
         <v>12</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C327" t="s">
         <v>13</v>
@@ -14155,10 +14155,10 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C328" t="s">
         <v>12</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C329" t="s">
         <v>13</v>
@@ -14210,7 +14210,7 @@
         <v>18</v>
       </c>
       <c r="G329" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H329" s="5">
         <v>25569.482638888891</v>
@@ -14229,10 +14229,10 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C330" t="s">
         <v>12</v>
@@ -14247,7 +14247,7 @@
         <v>18</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H330" s="5">
         <v>25569.482638888891</v>
@@ -14266,10 +14266,10 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C331" t="s">
         <v>13</v>
@@ -14284,7 +14284,7 @@
         <v>18</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H331" s="5">
         <v>25569.482638888891</v>
@@ -14303,10 +14303,10 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C332" t="s">
         <v>13</v>
@@ -14321,7 +14321,7 @@
         <v>18</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H332" s="5">
         <v>25569.482638888891</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C333" t="s">
         <v>14</v>
@@ -14358,7 +14358,7 @@
         <v>18</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H333" s="5">
         <v>25569.482638888891</v>
@@ -14377,10 +14377,10 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C334" t="s">
         <v>13</v>
@@ -14395,7 +14395,7 @@
         <v>16</v>
       </c>
       <c r="G334" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H334" s="5">
         <v>25569.451388888891</v>
@@ -14414,10 +14414,10 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C335" t="s">
         <v>12</v>
@@ -14432,7 +14432,7 @@
         <v>16</v>
       </c>
       <c r="G335" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H335" s="5">
         <v>25569.451388888891</v>
@@ -14451,10 +14451,10 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C336" t="s">
         <v>13</v>
@@ -14469,7 +14469,7 @@
         <v>18</v>
       </c>
       <c r="G336" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H336" s="5">
         <v>25569.482638888891</v>
@@ -14488,10 +14488,10 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C337" t="s">
         <v>12</v>
@@ -14506,7 +14506,7 @@
         <v>18</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H337" s="5">
         <v>25569.482638888891</v>
@@ -14525,10 +14525,10 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C338" t="s">
         <v>14</v>
@@ -14543,7 +14543,7 @@
         <v>18</v>
       </c>
       <c r="G338" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H338" s="5">
         <v>25569.482638888891</v>
@@ -14562,10 +14562,10 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C339" t="s">
         <v>13</v>
@@ -14580,7 +14580,7 @@
         <v>15</v>
       </c>
       <c r="G339" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H339" s="5">
         <v>25569.427083333332</v>
@@ -14599,10 +14599,10 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C340" t="s">
         <v>12</v>
@@ -14617,7 +14617,7 @@
         <v>15</v>
       </c>
       <c r="G340" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H340" s="5">
         <v>25569.427083333332</v>
@@ -14636,10 +14636,10 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
@@ -14654,7 +14654,7 @@
         <v>15</v>
       </c>
       <c r="G341" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H341" s="5">
         <v>25569.541666666668</v>
@@ -14673,10 +14673,10 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C342" t="s">
         <v>14</v>
@@ -14691,7 +14691,7 @@
         <v>15</v>
       </c>
       <c r="G342" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H342" s="5">
         <v>25569.541666666668</v>
@@ -14710,10 +14710,10 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C343" t="s">
         <v>12</v>
@@ -14728,7 +14728,7 @@
         <v>18</v>
       </c>
       <c r="G343" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H343" s="5">
         <v>25569.569444444445</v>
@@ -14747,10 +14747,10 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C344" t="s">
         <v>13</v>
@@ -14765,7 +14765,7 @@
         <v>18</v>
       </c>
       <c r="G344" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H344" s="5">
         <v>25569.569444444445</v>
@@ -14784,10 +14784,10 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C345" t="s">
         <v>13</v>
@@ -14802,7 +14802,7 @@
         <v>18</v>
       </c>
       <c r="G345" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H345" s="5">
         <v>25569.569444444445</v>
@@ -14821,10 +14821,10 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C346" t="s">
         <v>12</v>
@@ -14839,7 +14839,7 @@
         <v>18</v>
       </c>
       <c r="G346" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H346" s="5">
         <v>25569.569444444445</v>
@@ -14858,10 +14858,10 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C347" t="s">
         <v>13</v>
@@ -14876,7 +14876,7 @@
         <v>15</v>
       </c>
       <c r="G347" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H347" s="5">
         <v>25569.541666666668</v>
@@ -14895,10 +14895,10 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C348" t="s">
         <v>12</v>
@@ -14913,7 +14913,7 @@
         <v>15</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H348" s="5">
         <v>25569.541666666668</v>
@@ -14932,10 +14932,10 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C349" t="s">
         <v>13</v>
@@ -14950,7 +14950,7 @@
         <v>18</v>
       </c>
       <c r="G349" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H349" s="5">
         <v>25569.569444444445</v>
@@ -14969,10 +14969,10 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C350" t="s">
         <v>12</v>
@@ -14987,7 +14987,7 @@
         <v>18</v>
       </c>
       <c r="G350" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H350" s="5">
         <v>25569.569444444445</v>
@@ -15006,10 +15006,10 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C351" t="s">
         <v>14</v>
@@ -15024,7 +15024,7 @@
         <v>15</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H351" s="5">
         <v>25569.541666666668</v>
@@ -15043,10 +15043,10 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C352" t="s">
         <v>12</v>
@@ -15061,7 +15061,7 @@
         <v>15</v>
       </c>
       <c r="G352" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H352" s="5">
         <v>25569.541666666668</v>
@@ -15080,10 +15080,10 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C353" t="s">
         <v>13</v>
@@ -15098,7 +15098,7 @@
         <v>15</v>
       </c>
       <c r="G353" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H353" s="5">
         <v>25569.541666666668</v>
@@ -15117,10 +15117,10 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C354" t="s">
         <v>12</v>
@@ -15132,10 +15132,10 @@
         <v>0</v>
       </c>
       <c r="F354" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G354" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H354" s="5">
         <v>25569.600694444445</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C355" t="s">
         <v>13</v>
@@ -15169,10 +15169,10 @@
         <v>0</v>
       </c>
       <c r="F355" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G355" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H355" s="5">
         <v>25569.600694444445</v>
@@ -15191,10 +15191,10 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C356" t="s">
         <v>12</v>
@@ -15206,10 +15206,10 @@
         <v>0</v>
       </c>
       <c r="F356" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G356" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H356" s="5">
         <v>25569.600694444445</v>
@@ -15228,10 +15228,10 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C357" t="s">
         <v>13</v>
@@ -15243,10 +15243,10 @@
         <v>0</v>
       </c>
       <c r="F357" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="G357" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H357" s="5">
         <v>25569.600694444445</v>
